--- a/ExcelFiles/SuiteOne.xlsx
+++ b/ExcelFiles/SuiteOne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="2" tabRatio="685" windowHeight="9435" windowWidth="24000" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" tabRatio="685" windowHeight="9435" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestCasesList" r:id="rId1" sheetId="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="292">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -628,9 +628,6 @@
     <t>hasEmployerCoverage</t>
   </si>
   <si>
-    <t>ank1167@test.com</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -748,18 +745,6 @@
     <t>47-QAA-004389-01</t>
   </si>
   <si>
-    <t>ank1167Quote_10@test.com</t>
-  </si>
-  <si>
-    <t>ank1167Quote_11@test.com</t>
-  </si>
-  <si>
-    <t>ank1167Quote_12@test.com</t>
-  </si>
-  <si>
-    <t>ank1167Quote_13@test.com</t>
-  </si>
-  <si>
     <t>ank13_1_6@test.com</t>
   </si>
   <si>
@@ -772,15 +757,6 @@
     <t>47-QAA-004415-01</t>
   </si>
   <si>
-    <t>ank11677Policy_7@test.com</t>
-  </si>
-  <si>
-    <t>ank11677Policy_8@test.com</t>
-  </si>
-  <si>
-    <t>ank11677Policy_9@test.com</t>
-  </si>
-  <si>
     <t>47-QAA-004416-01</t>
   </si>
   <si>
@@ -793,9 +769,6 @@
     <t>47-QAA-004421-01</t>
   </si>
   <si>
-    <t>ank1167Quote_14@test.com</t>
-  </si>
-  <si>
     <t>ank1167Quote_15@test.com</t>
   </si>
   <si>
@@ -835,33 +808,15 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>ank1169@test.com</t>
-  </si>
-  <si>
-    <t>47-QAA-004580-01</t>
-  </si>
-  <si>
     <t>47-QAA-004592-01</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>47-QAA-004600-01</t>
-  </si>
-  <si>
-    <t>47-QAA-004600-02</t>
-  </si>
-  <si>
     <t>TC004_1</t>
   </si>
   <si>
-    <t>deepak1807@test.com</t>
-  </si>
-  <si>
-    <t>ank942@test.com</t>
-  </si>
-  <si>
     <t>durga@26july.com</t>
   </si>
   <si>
@@ -880,22 +835,82 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>47-QAA-004549-01</t>
-  </si>
-  <si>
-    <t>47-QAA-004550-01</t>
-  </si>
-  <si>
-    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004550-01_Policy (1).pdf</t>
-  </si>
-  <si>
-    <t>47-QAA-004551-01</t>
-  </si>
-  <si>
-    <t>47-QAA-004552-01</t>
-  </si>
-  <si>
-    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004552-01_Policy (1).pdf</t>
+    <t>47-QAA-004590-01</t>
+  </si>
+  <si>
+    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004590-01_Policy.pdf</t>
+  </si>
+  <si>
+    <t>47-QAA-004591-01</t>
+  </si>
+  <si>
+    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004591-01_Policy.pdf</t>
+  </si>
+  <si>
+    <t>ankxceed@test.com</t>
+  </si>
+  <si>
+    <t>Deepak.sharma22aug@test.com</t>
+  </si>
+  <si>
+    <t>Deepak.sharma24aug@test.com</t>
+  </si>
+  <si>
+    <t>Deepak.sharma23aug@test.com</t>
+  </si>
+  <si>
+    <t>ank1167Quote_16@test.com</t>
+  </si>
+  <si>
+    <t>ank1167Quote_17@test.com</t>
+  </si>
+  <si>
+    <t>ank1167Quote_18@test.com</t>
+  </si>
+  <si>
+    <t>ank1167Quote_19@test.com</t>
+  </si>
+  <si>
+    <t>ank1167Quote_20@test.com</t>
+  </si>
+  <si>
+    <t>47-QAA-004675-01</t>
+  </si>
+  <si>
+    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004675-01_Policy.pdf</t>
+  </si>
+  <si>
+    <t>47-QAA-004676-01</t>
+  </si>
+  <si>
+    <t>C:\Users\deepak.sharma1\Downloads\Derryn Zwart_47-QAA-004676-01_Policy.pdf</t>
+  </si>
+  <si>
+    <t>47-QAA-004677-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004678-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004679-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004810-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004810-02</t>
+  </si>
+  <si>
+    <t>47-QAA-004812-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004812-02</t>
+  </si>
+  <si>
+    <t>47-QAA-004813-01</t>
+  </si>
+  <si>
+    <t>47-QAA-004813-02</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,12 +1975,12 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>2</v>
@@ -1987,7 +2002,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2108,7 +2123,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2119,7 +2134,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2139,7 +2154,7 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,10 +2164,10 @@
   <sheetData>
     <row customFormat="1" r="1" s="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>193</v>
@@ -2167,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -2194,13 +2209,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -2215,7 +2230,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -2224,7 +2239,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -2242,22 +2257,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -2266,7 +2281,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -2290,19 +2305,19 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="AX1" s="30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AY1" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AZ1" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="BA1" s="15" t="s">
         <v>3</v>
@@ -2325,10 +2340,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -2346,13 +2361,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -2376,7 +2391,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -2388,7 +2403,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -2406,16 +2421,16 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
@@ -2430,7 +2445,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -2451,22 +2466,22 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>194</v>
       </c>
       <c r="AX2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AY2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AZ2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="BA2" s="21" t="s">
         <v>2</v>
@@ -2489,10 +2504,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -2510,13 +2525,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -2540,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -2552,7 +2567,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -2570,16 +2585,16 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
@@ -2594,7 +2609,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -2618,7 +2633,7 @@
         <v>58</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>194</v>
@@ -2653,10 +2668,10 @@
         <v>171</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>58</v>
@@ -2674,13 +2689,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -2704,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -2716,7 +2731,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -2734,16 +2749,16 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
@@ -2758,7 +2773,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -2782,7 +2797,7 @@
         <v>58</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AW4" s="11" t="s">
         <v>194</v>
@@ -2809,7 +2824,8 @@
     <hyperlink display="ank1167@test.com" r:id="rId2" ref="A3"/>
     <hyperlink display="ank1167@test.com" r:id="rId3" ref="A4"/>
     <hyperlink r:id="rId4" ref="AV2"/>
-    <hyperlink display="ank1169@test.com" r:id="rId5" ref="AV3:AV4"/>
+    <hyperlink r:id="rId5" ref="AV3"/>
+    <hyperlink r:id="rId6" ref="AV4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2819,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AV7" sqref="AV7"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,10 +2849,10 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>193</v>
@@ -2851,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -2878,13 +2894,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -2899,7 +2915,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -2908,7 +2924,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -2926,22 +2942,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -2950,7 +2966,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -2974,19 +2990,19 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="AX1" s="30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AY1" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AZ1" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="BA1" s="15" t="s">
         <v>3</v>
@@ -3009,10 +3025,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -3030,13 +3046,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -3060,7 +3076,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -3072,7 +3088,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -3090,16 +3106,16 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
@@ -3114,7 +3130,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -3135,22 +3151,22 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>194</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AZ2" s="21" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="BA2" s="21" t="s">
         <v>2</v>
@@ -3173,10 +3189,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -3194,13 +3210,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -3224,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -3236,7 +3252,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -3254,16 +3270,16 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
@@ -3278,7 +3294,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -3302,7 +3318,7 @@
         <v>58</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>194</v>
@@ -3337,10 +3353,10 @@
         <v>171</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>58</v>
@@ -3358,13 +3374,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -3388,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -3400,7 +3416,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -3418,16 +3434,16 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
@@ -3442,7 +3458,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -3466,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AW4" s="11" t="s">
         <v>194</v>
@@ -3548,7 +3564,7 @@
         <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3559,7 +3575,7 @@
     </row>
     <row customFormat="1" r="2" s="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>194</v>
@@ -3571,19 +3587,19 @@
         <v>146</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>149</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>2</v>
@@ -4850,8 +4866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -4907,13 +4923,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -4928,7 +4944,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>3</v>
@@ -4939,7 +4955,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>194</v>
@@ -4972,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
@@ -5002,7 +5018,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -5011,12 +5027,12 @@
         <v>2</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>194</v>
@@ -5025,7 +5041,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>175</v>
@@ -5040,7 +5056,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>41</v>
@@ -5049,7 +5065,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
@@ -5079,7 +5095,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -5088,12 +5104,12 @@
         <v>2</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>194</v>
@@ -5102,7 +5118,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>20</v>
@@ -5117,7 +5133,7 @@
         <v>58</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>41</v>
@@ -5126,7 +5142,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
@@ -5156,7 +5172,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -5170,7 +5186,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>194</v>
@@ -5179,7 +5195,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>175</v>
@@ -5203,7 +5219,7 @@
         <v>44</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>39</v>
@@ -5233,7 +5249,7 @@
         <v>41</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W5" s="29" t="s">
         <v>43</v>
@@ -5247,7 +5263,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>194</v>
@@ -5271,7 +5287,7 @@
         <v>58</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>41</v>
@@ -5280,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>39</v>
@@ -5310,7 +5326,7 @@
         <v>41</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W6" s="29" t="s">
         <v>43</v>
@@ -5324,7 +5340,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>194</v>
@@ -5333,7 +5349,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>20</v>
@@ -5348,7 +5364,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>41</v>
@@ -5357,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>39</v>
@@ -5387,7 +5403,7 @@
         <v>41</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W7" s="29" t="s">
         <v>43</v>
@@ -5401,14 +5417,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="ank1167Quote_1@test.com" r:id="rId1" ref="A3:A7"/>
-    <hyperlink r:id="rId2" ref="A7"/>
-    <hyperlink display="ank1167Quote_6@test.com" r:id="rId3" ref="A2:A6"/>
-    <hyperlink r:id="rId4" ref="A2"/>
-    <hyperlink r:id="rId5" ref="A3"/>
-    <hyperlink r:id="rId6" ref="A4"/>
-    <hyperlink r:id="rId7" ref="A5"/>
-    <hyperlink r:id="rId8" ref="A6"/>
+    <hyperlink display="ank1167Quote_6@test.com" r:id="rId1" ref="A2:A6"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+    <hyperlink r:id="rId3" ref="A3"/>
+    <hyperlink display="ank1167Quote_6@test.com" r:id="rId4" ref="A4:A7"/>
+    <hyperlink r:id="rId5" ref="A4"/>
+    <hyperlink r:id="rId6" ref="A5"/>
+    <hyperlink r:id="rId7" ref="A6"/>
+    <hyperlink r:id="rId8" ref="A7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -5420,7 +5436,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5469,7 +5485,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -5496,13 +5512,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -5517,7 +5533,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>3</v>
@@ -5528,7 +5544,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>194</v>
@@ -5537,7 +5553,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>175</v>
@@ -5555,7 +5571,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
@@ -5585,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -5594,12 +5610,12 @@
         <v>2</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>194</v>
@@ -5608,7 +5624,7 @@
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
         <v>175</v>
@@ -5617,7 +5633,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>41</v>
@@ -5626,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
@@ -5656,7 +5672,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -5665,12 +5681,12 @@
         <v>2</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>194</v>
@@ -5679,7 +5695,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>175</v>
@@ -5688,7 +5704,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>41</v>
@@ -5697,7 +5713,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
@@ -5727,7 +5743,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -5736,12 +5752,12 @@
         <v>2</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>194</v>
@@ -5750,7 +5766,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>175</v>
@@ -5768,7 +5784,7 @@
         <v>44</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>39</v>
@@ -5798,7 +5814,7 @@
         <v>41</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W5" s="29" t="s">
         <v>43</v>
@@ -5812,7 +5828,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>194</v>
@@ -5821,7 +5837,7 @@
         <v>195</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>175</v>
@@ -5830,7 +5846,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>41</v>
@@ -5839,7 +5855,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>39</v>
@@ -5869,7 +5885,7 @@
         <v>41</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W6" s="29" t="s">
         <v>43</v>
@@ -5878,12 +5894,12 @@
         <v>2</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>194</v>
@@ -5892,7 +5908,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>175</v>
@@ -5901,7 +5917,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>41</v>
@@ -5910,7 +5926,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>39</v>
@@ -5940,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W7" s="29" t="s">
         <v>43</v>
@@ -5949,10 +5965,14 @@
         <v>2</v>
       </c>
       <c r="Y7" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="ankxceed@test.com" r:id="rId1" ref="A3:A7"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -5962,7 +5982,7 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,7 +6021,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -6028,13 +6048,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -6049,7 +6069,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -6058,7 +6078,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -6076,22 +6096,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -6100,7 +6120,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -6132,7 +6152,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="18" r="2" s="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>194</v>
@@ -6144,10 +6164,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -6165,13 +6185,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -6195,7 +6215,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -6207,7 +6227,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -6225,22 +6245,22 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL2" s="21" t="s">
         <v>91</v>
@@ -6249,7 +6269,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -6270,7 +6290,7 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AV2" s="21" t="s">
         <v>2</v>
@@ -6281,7 +6301,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>194</v>
@@ -6293,10 +6313,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -6314,13 +6334,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -6344,7 +6364,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -6356,7 +6376,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -6374,22 +6394,22 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK3" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL3" s="21" t="s">
         <v>91</v>
@@ -6398,7 +6418,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -6419,7 +6439,7 @@
         <v>100</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AV3" s="21" t="s">
         <v>2</v>
@@ -6430,7 +6450,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>194</v>
@@ -6463,13 +6483,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -6493,7 +6513,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -6505,7 +6525,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -6523,22 +6543,22 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL4" s="21" t="s">
         <v>91</v>
@@ -6547,7 +6567,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -6568,7 +6588,7 @@
         <v>100</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AV4" s="21" t="s">
         <v>2</v>
@@ -6580,9 +6600,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink display="ank11677Policy_6@test.com" r:id="rId2" ref="A3:A4"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="A4"/>
+    <hyperlink display="Deepak.sharma22aug@test.com" r:id="rId2" ref="A3:A4"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6590,10 +6610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10:AX11"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6623,7 +6643,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -6650,13 +6670,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -6671,7 +6691,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -6680,7 +6700,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -6698,22 +6718,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -6722,7 +6742,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -6746,7 +6766,7 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>153</v>
@@ -6760,22 +6780,22 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -6793,13 +6813,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -6823,7 +6843,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -6835,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -6853,22 +6873,22 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL2" s="21" t="s">
         <v>91</v>
@@ -6877,7 +6897,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -6898,16 +6918,16 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AV2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="AW2" s="31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>13</v>
@@ -6915,22 +6935,22 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -6939,7 +6959,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>41</v>
@@ -6948,13 +6968,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -6978,7 +6998,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -6990,7 +7010,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -7008,22 +7028,22 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK3" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL3" s="21" t="s">
         <v>91</v>
@@ -7032,7 +7052,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -7053,36 +7073,36 @@
         <v>100</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="AV3" s="21" t="s">
         <v>58</v>
       </c>
       <c r="AW3" s="21" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="AX3" s="21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="21" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>21</v>
@@ -7103,13 +7123,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -7133,7 +7153,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -7145,7 +7165,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -7163,22 +7183,22 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL4" s="21" t="s">
         <v>91</v>
@@ -7187,7 +7207,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -7217,10 +7237,460 @@
         <v>58</v>
       </c>
       <c r="AX4" s="21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="21" t="s">
-        <v>57</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK5" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP5" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH6" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK6" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK7" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -7228,6 +7698,9 @@
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
     <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7238,7 +7711,7 @@
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection sqref="A1:AW4"/>
+      <selection activeCell="AW2" sqref="AV2:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,10 +7761,10 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>193</v>
@@ -7306,7 +7779,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -7333,13 +7806,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -7354,7 +7827,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -7363,7 +7836,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -7381,22 +7854,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -7405,7 +7878,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -7429,7 +7902,7 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>166</v>
@@ -7455,10 +7928,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -7476,13 +7949,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -7506,7 +7979,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -7518,7 +7991,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -7536,16 +8009,16 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
@@ -7560,7 +8033,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -7581,10 +8054,10 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>194</v>
@@ -7610,10 +8083,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -7631,13 +8104,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -7661,7 +8134,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -7673,7 +8146,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -7691,16 +8164,16 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
@@ -7715,7 +8188,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -7736,19 +8209,19 @@
         <v>100</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>194</v>
       </c>
       <c r="AX3" s="21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="21" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -7765,10 +8238,10 @@
         <v>171</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>58</v>
@@ -7786,13 +8259,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -7816,7 +8289,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -7828,7 +8301,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -7846,16 +8319,16 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
@@ -7870,7 +8343,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -7891,19 +8364,19 @@
         <v>100</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="AW4" s="11" t="s">
         <v>194</v>
       </c>
       <c r="AX4" s="21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="21" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7911,9 +8384,9 @@
     <hyperlink display="ank1167@test.com" r:id="rId1" ref="A2"/>
     <hyperlink display="ank1167@test.com" r:id="rId2" ref="A3"/>
     <hyperlink display="ank1167@test.com" r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="AV4"/>
-    <hyperlink r:id="rId5" ref="AV2"/>
-    <hyperlink r:id="rId6" ref="AV3"/>
+    <hyperlink r:id="rId4" ref="AV2"/>
+    <hyperlink r:id="rId5" ref="AV3"/>
+    <hyperlink r:id="rId6" ref="AV4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7935,10 +8408,10 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>193</v>
@@ -7953,7 +8426,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -7980,13 +8453,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -8001,7 +8474,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -8010,7 +8483,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -8028,22 +8501,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -8052,7 +8525,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -8076,7 +8549,7 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>166</v>
@@ -8102,10 +8575,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -8123,13 +8596,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -8153,7 +8626,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -8165,7 +8638,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -8183,16 +8656,16 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AI2" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
@@ -8207,7 +8680,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -8228,10 +8701,10 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>194</v>
@@ -8257,10 +8730,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -8278,13 +8751,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -8308,7 +8781,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -8320,7 +8793,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -8338,16 +8811,16 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AI3" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
@@ -8362,7 +8835,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -8383,10 +8856,10 @@
         <v>100</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>194</v>
@@ -8414,7 +8887,7 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+      <selection activeCell="AW2" sqref="AV2:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8432,10 +8905,10 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>193</v>
@@ -8450,7 +8923,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>169</v>
@@ -8477,13 +8950,13 @@
         <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
@@ -8498,7 +8971,7 @@
         <v>170</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>63</v>
@@ -8507,7 +8980,7 @@
         <v>64</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="18" t="s">
         <v>65</v>
@@ -8525,22 +8998,22 @@
         <v>68</v>
       </c>
       <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="AJ1" s="18" t="s">
         <v>173</v>
       </c>
       <c r="AK1" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL1" s="18" t="s">
         <v>85</v>
@@ -8549,7 +9022,7 @@
         <v>86</v>
       </c>
       <c r="AN1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="18" t="s">
         <v>89</v>
@@ -8573,19 +9046,19 @@
         <v>103</v>
       </c>
       <c r="AV1" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AW1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="AX1" s="30" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AY1" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AZ1" s="30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="BA1" s="15" t="s">
         <v>3</v>
@@ -8608,10 +9081,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>58</v>
@@ -8629,13 +9102,13 @@
         <v>44</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>43</v>
@@ -8659,7 +9132,7 @@
         <v>41</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>43</v>
@@ -8671,7 +9144,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="21" t="s">
         <v>71</v>
@@ -8689,16 +9162,16 @@
         <v>82</v>
       </c>
       <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI2" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>172</v>
@@ -8713,7 +9186,7 @@
         <v>101</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO2" s="21" t="s">
         <v>94</v>
@@ -8734,28 +9207,28 @@
         <v>100</v>
       </c>
       <c r="AU2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV2" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>194</v>
       </c>
       <c r="AX2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AZ2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="BA2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="BB2" s="21" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -8772,10 +9245,10 @@
         <v>171</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>58</v>
@@ -8793,13 +9266,13 @@
         <v>44</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>43</v>
@@ -8823,7 +9296,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="29" t="s">
         <v>43</v>
@@ -8835,7 +9308,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="21" t="s">
         <v>71</v>
@@ -8853,16 +9326,16 @@
         <v>82</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI3" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="21" t="s">
         <v>172</v>
@@ -8877,7 +9350,7 @@
         <v>101</v>
       </c>
       <c r="AN3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="21" t="s">
         <v>94</v>
@@ -8898,10 +9371,10 @@
         <v>100</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>194</v>
@@ -8927,10 +9400,10 @@
         <v>171</v>
       </c>
       <c r="E4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>58</v>
@@ -8948,13 +9421,13 @@
         <v>44</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>43</v>
@@ -8978,7 +9451,7 @@
         <v>41</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W4" s="29" t="s">
         <v>43</v>
@@ -8990,7 +9463,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>71</v>
@@ -9008,16 +9481,16 @@
         <v>82</v>
       </c>
       <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="AI4" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ4" s="21" t="s">
         <v>172</v>
@@ -9032,7 +9505,7 @@
         <v>101</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO4" s="21" t="s">
         <v>94</v>
@@ -9053,689 +9526,13 @@
         <v>100</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AV4" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AW4" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="BA4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB4" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="ank1167@test.com" r:id="rId1" ref="A2"/>
-    <hyperlink display="ank1167@test.com" r:id="rId2" ref="A3"/>
-    <hyperlink display="ank1167@test.com" r:id="rId3" ref="A4"/>
-    <hyperlink display="ank1169@test.com" r:id="rId4" ref="AV2:AV4"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC4"/>
-  <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU1" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX1" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="AZ1" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB1" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ2" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS3" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV3" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB3" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT4" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="BA4" s="21" t="s">
         <v>12</v>
@@ -9756,4 +9553,684 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC4"/>
+  <sheetViews>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AV2:AW2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX1" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB3" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="ank1167@test.com" r:id="rId1" ref="A2"/>
+    <hyperlink display="ank1167@test.com" r:id="rId2" ref="A3"/>
+    <hyperlink display="ank1167@test.com" r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="AV4"/>
+    <hyperlink r:id="rId5" ref="AV2"/>
+    <hyperlink r:id="rId6" ref="AV3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>